--- a/data/trans_dic/P69$nervioso-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P69$nervioso-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.7096910997750903</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.8349671659971815</v>
+        <v>0.8349671659971816</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.7688459106504152</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6653500713707211</v>
+        <v>0.6513954646867092</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4789335228879554</v>
+        <v>0.4832027098043264</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5898760937706378</v>
+        <v>0.5909891556812804</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8406679571667273</v>
+        <v>0.8363749485732562</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6339032621596414</v>
+        <v>0.6113631615260935</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6624933744180425</v>
+        <v>0.6878789707568375</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5345166990162179</v>
+        <v>0.5598002772569909</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.7501151602753789</v>
+        <v>0.7332291990489042</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6842672315848269</v>
+        <v>0.6854007685190437</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6165498570902536</v>
+        <v>0.6019859038938671</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.6198862759460333</v>
+        <v>0.6282520783434912</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.8169791438475229</v>
+        <v>0.8195385258726924</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.862959817390589</v>
+        <v>0.8568906382751432</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7540504903560366</v>
+        <v>0.7520867821791634</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8521075173909405</v>
+        <v>0.8485079897215271</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9826593982845124</v>
+        <v>0.9826829678513317</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8800774234454343</v>
+        <v>0.8763618596887102</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9156442210372793</v>
+        <v>0.9120671578048541</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8269418629357698</v>
+        <v>0.8341325380700932</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9072921460659455</v>
+        <v>0.9050697214107588</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8450193952608797</v>
+        <v>0.8431678195411266</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7968157124339418</v>
+        <v>0.7880841710957877</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8075916115998814</v>
+        <v>0.8247730895635687</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9278568506129204</v>
+        <v>0.9299632876219891</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.6833224727300836</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.838237003174096</v>
+        <v>0.8382370031740959</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3857445296176594</v>
+        <v>0.3743472364987044</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4978679885615508</v>
+        <v>0.5159636524519647</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3935572788685472</v>
+        <v>0.4166684339353171</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7094889532939432</v>
+        <v>0.7249487508369996</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5377985185083521</v>
+        <v>0.5387498992005514</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3796762562939759</v>
+        <v>0.3583720398039644</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5786702111000952</v>
+        <v>0.5632492182949823</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7075579902046114</v>
+        <v>0.7065481422083606</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5039621166315252</v>
+        <v>0.5033857783487006</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5154432298392583</v>
+        <v>0.5024504151456085</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.5469605853096386</v>
+        <v>0.5594818091409651</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.7595624320270915</v>
+        <v>0.755467605701755</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7101660196168915</v>
+        <v>0.6903821339953303</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8188943351445165</v>
+        <v>0.8357769674304525</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7609642770988964</v>
+        <v>0.7816870977483399</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9383532791539939</v>
+        <v>0.9447516248949622</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8060134325148099</v>
+        <v>0.8086135035416744</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7879080547901578</v>
+        <v>0.7789677127358945</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9001500406912889</v>
+        <v>0.8998095035267991</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8985014744083231</v>
+        <v>0.9045935524850925</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.72405600829368</v>
+        <v>0.720901385040845</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7698182392719939</v>
+        <v>0.7686915658171904</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7923995703866229</v>
+        <v>0.7986388552221231</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.8988401809054507</v>
+        <v>0.9067011961534014</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.6861745971289638</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.5408158614906799</v>
+        <v>0.5408158614906802</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.4890574502696161</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.423408408196002</v>
+        <v>0.4171328590552126</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2981206109167825</v>
+        <v>0.2953582568565941</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2132525057325356</v>
+        <v>0.2194410957098848</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3510262694107865</v>
+        <v>0.3438740825960416</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1049648739038063</v>
+        <v>0.06990198838432286</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.299594913999933</v>
+        <v>0.2864826363714599</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3344806325172389</v>
+        <v>0.3358045305453949</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3578460203009695</v>
+        <v>0.3418751152461029</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3901551071105813</v>
+        <v>0.3989080150963637</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3370194766730472</v>
+        <v>0.3281037928238922</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.267363906119365</v>
+        <v>0.2669261199019661</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3757050726836116</v>
+        <v>0.392392742659945</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6216052221536514</v>
+        <v>0.6227271911073765</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5150591857755209</v>
+        <v>0.5280610961666932</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4486302920136165</v>
+        <v>0.4578634904009554</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6207039225286992</v>
+        <v>0.6387527827351738</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6044560740521822</v>
+        <v>0.5964692559836925</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6590096027030057</v>
+        <v>0.6536899939846063</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9099235465075172</v>
+        <v>0.9063880298026868</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7337149008923782</v>
+        <v>0.710979216726081</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5876418956278749</v>
+        <v>0.5916414016577909</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5335938660070774</v>
+        <v>0.5252077905273995</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.496164142187148</v>
+        <v>0.4933400813131495</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6140131922565127</v>
+        <v>0.6180925501203249</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.4280897877952691</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5631641322471056</v>
+        <v>0.5631641322471057</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.4995729687186233</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.248221629570662</v>
+        <v>0.2486250824837133</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3369725677141079</v>
+        <v>0.3401478753407269</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3427420957239267</v>
+        <v>0.3384399919868907</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4695228752874419</v>
+        <v>0.4613705181911612</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3568865154894987</v>
+        <v>0.3592291973291221</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3611996887392971</v>
+        <v>0.3559520260657355</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4885709743328002</v>
+        <v>0.4741213858045171</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5816943777486293</v>
+        <v>0.5722641030289691</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.292453542194278</v>
+        <v>0.2918938088276846</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3725940189390068</v>
+        <v>0.3698165727338852</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4196601979079683</v>
+        <v>0.4148548002937666</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.535090083638647</v>
+        <v>0.5374589092634386</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3848434121049087</v>
+        <v>0.3820322979108447</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5219758484886771</v>
+        <v>0.5300619759476825</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5207733866671735</v>
+        <v>0.508595791186904</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6543837545519792</v>
+        <v>0.6499285800479181</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6358559827502208</v>
+        <v>0.6371162994674464</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6071242313422857</v>
+        <v>0.603276894652117</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.696526901197642</v>
+        <v>0.6889036636382933</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7348573180945295</v>
+        <v>0.7310530625734246</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4093717171414201</v>
+        <v>0.4113609492268134</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5264816044967515</v>
+        <v>0.5211977579744512</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5553818773654163</v>
+        <v>0.5595982384271581</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6635722341094575</v>
+        <v>0.6608467513337341</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.248137015499885</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4362283952440356</v>
+        <v>0.4362283952440355</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.2879709710005142</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1484699541057522</v>
+        <v>0.1555909549785379</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1555782690023451</v>
+        <v>0.1551595070933374</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1536036741289853</v>
+        <v>0.1505810793303323</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3108638367856782</v>
+        <v>0.3081943843206517</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1871525204786764</v>
+        <v>0.1877327435064439</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3812449101333572</v>
+        <v>0.3885528083118022</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2934023885732904</v>
+        <v>0.2892813761861757</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4787724353272422</v>
+        <v>0.4689668519731223</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2010588688262966</v>
+        <v>0.1898550715581863</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3137879579081801</v>
+        <v>0.3128870047769659</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2357695451985581</v>
+        <v>0.2400638573621318</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4457874532780007</v>
+        <v>0.4305932667468017</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3782324756701897</v>
+        <v>0.3883797608985429</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4572890803681094</v>
+        <v>0.4513601466846299</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3627101942993596</v>
+        <v>0.3677354982823689</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5802075347454977</v>
+        <v>0.5775367800968664</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4074588738975645</v>
+        <v>0.4103467866029853</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7018787332861812</v>
+        <v>0.6946374578638971</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5652980655839565</v>
+        <v>0.5654941688112064</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6435099724226803</v>
+        <v>0.6435851986034101</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3646965750277067</v>
+        <v>0.3554177364130129</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5512875634267881</v>
+        <v>0.5474655980312177</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4188350522052389</v>
+        <v>0.411914784888018</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.5945754333127942</v>
+        <v>0.5820374689525374</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.6058053637045983</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.6740471438797493</v>
+        <v>0.6740471438797494</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.4587262710277726</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3845677611404195</v>
+        <v>0.3897433772710261</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.409108526693915</v>
+        <v>0.4103240435007243</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3750212780400902</v>
+        <v>0.3750145735124971</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5620498706155886</v>
+        <v>0.5586806618353195</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4457231826801007</v>
+        <v>0.4429179215040394</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.5051703401034251</v>
+        <v>0.5045990448482811</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.5387029532001733</v>
+        <v>0.537519115903437</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.6296399765710383</v>
+        <v>0.6303050306980142</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.4186673132849512</v>
+        <v>0.419772627578116</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.4686201220595892</v>
+        <v>0.464053404014462</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.4549835171895991</v>
+        <v>0.4539842836894373</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.6071513480858545</v>
+        <v>0.6093796189552457</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4781247226262521</v>
+        <v>0.4856202332883515</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.522843344339563</v>
+        <v>0.5187344260557682</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4887248422100474</v>
+        <v>0.4862874325706368</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.6732208399647258</v>
+        <v>0.6723320988233139</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5786791822972083</v>
+        <v>0.5762096929885986</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.6490909398210539</v>
+        <v>0.646188140988184</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.670087999540992</v>
+        <v>0.6717307811157897</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.719857738240556</v>
+        <v>0.7165287570365364</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4956288314082727</v>
+        <v>0.4958969238729041</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.5541214813960355</v>
+        <v>0.5582665919341073</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.5410762910672456</v>
+        <v>0.5414326676749553</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.680167511637789</v>
+        <v>0.6789494454974337</v>
       </c>
     </row>
     <row r="22">
@@ -1737,40 +1737,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>43303</v>
+        <v>42395</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>26561</v>
+        <v>26797</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>27672</v>
+        <v>27724</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>43012</v>
+        <v>42792</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>29572</v>
+        <v>28520</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>29063</v>
+        <v>30177</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>24552</v>
+        <v>25714</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>45864</v>
+        <v>44831</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>76455</v>
+        <v>76582</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>61241</v>
+        <v>59794</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>57553</v>
+        <v>58330</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>91752</v>
+        <v>92039</v>
       </c>
     </row>
     <row r="7">
@@ -1781,40 +1781,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>56164</v>
+        <v>55769</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>41818</v>
+        <v>41709</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>39973</v>
+        <v>39804</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>50277</v>
+        <v>50278</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>41056</v>
+        <v>40882</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>40168</v>
+        <v>40011</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>37985</v>
+        <v>38315</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>55474</v>
+        <v>55338</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>94417</v>
+        <v>94210</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>79146</v>
+        <v>78279</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>74981</v>
+        <v>76576</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>104204</v>
+        <v>104440</v>
       </c>
     </row>
     <row r="8">
@@ -1917,40 +1917,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>16338</v>
+        <v>15855</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>18094</v>
+        <v>18751</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>11900</v>
+        <v>12598</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>36935</v>
+        <v>37740</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>22381</v>
+        <v>22421</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>10105</v>
+        <v>9538</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>17009</v>
+        <v>16556</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>32161</v>
+        <v>32115</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>42318</v>
+        <v>42269</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>32450</v>
+        <v>31632</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>32616</v>
+        <v>33362</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>74067</v>
+        <v>73668</v>
       </c>
     </row>
     <row r="11">
@@ -1961,40 +1961,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>30079</v>
+        <v>29241</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>29760</v>
+        <v>30374</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>23009</v>
+        <v>23635</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>48850</v>
+        <v>49183</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>33543</v>
+        <v>33651</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>20969</v>
+        <v>20731</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>26459</v>
+        <v>26449</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>40840</v>
+        <v>41117</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>60799</v>
+        <v>60534</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>48465</v>
+        <v>48394</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>47252</v>
+        <v>47624</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>87649</v>
+        <v>88415</v>
       </c>
     </row>
     <row r="12">
@@ -2097,40 +2097,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>42354</v>
+        <v>41726</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>23355</v>
+        <v>23139</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>14065</v>
+        <v>14473</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>21583</v>
+        <v>21143</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1710</v>
+        <v>1138</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>10103</v>
+        <v>9661</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3201</v>
+        <v>3213</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>7320</v>
+        <v>6994</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>45381</v>
+        <v>46399</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>37767</v>
+        <v>36768</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>20193</v>
+        <v>20160</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>30786</v>
+        <v>32153</v>
       </c>
     </row>
     <row r="15">
@@ -2141,40 +2141,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>62179</v>
+        <v>62291</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>40351</v>
+        <v>41369</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>29590</v>
+        <v>30199</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>38164</v>
+        <v>39274</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>9845</v>
+        <v>9715</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>22223</v>
+        <v>22044</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>8707</v>
+        <v>8673</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>15010</v>
+        <v>14545</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>68352</v>
+        <v>68817</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>59796</v>
+        <v>58856</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>37473</v>
+        <v>37260</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>50313</v>
+        <v>50648</v>
       </c>
     </row>
     <row r="16">
@@ -2277,40 +2277,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>49646</v>
+        <v>49727</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>39205</v>
+        <v>39574</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>46911</v>
+        <v>46322</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>71220</v>
+        <v>69983</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>17825</v>
+        <v>17942</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>24545</v>
+        <v>24189</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>41078</v>
+        <v>39863</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>65845</v>
+        <v>64778</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>73100</v>
+        <v>72960</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>68669</v>
+        <v>68157</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>92722</v>
+        <v>91661</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>141736</v>
+        <v>142364</v>
       </c>
     </row>
     <row r="19">
@@ -2321,40 +2321,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>76971</v>
+        <v>76409</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>60729</v>
+        <v>61670</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>71278</v>
+        <v>69611</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>99261</v>
+        <v>98585</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>31758</v>
+        <v>31821</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>41257</v>
+        <v>40996</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>58562</v>
+        <v>57921</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>83183</v>
+        <v>82752</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>102324</v>
+        <v>102821</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>97030</v>
+        <v>96056</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>122709</v>
+        <v>123641</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>175769</v>
+        <v>175047</v>
       </c>
     </row>
     <row r="20">
@@ -2457,40 +2457,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>9503</v>
+        <v>9959</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>6008</v>
+        <v>5992</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>10468</v>
+        <v>10262</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>20190</v>
+        <v>20017</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>12282</v>
+        <v>12320</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>16648</v>
+        <v>16967</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>13885</v>
+        <v>13690</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>47931</v>
+        <v>46950</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>26064</v>
+        <v>24611</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>25821</v>
+        <v>25747</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>27225</v>
+        <v>27721</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>73582</v>
+        <v>71074</v>
       </c>
     </row>
     <row r="23">
@@ -2501,40 +2501,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>24210</v>
+        <v>24860</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>17660</v>
+        <v>17431</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>24718</v>
+        <v>25061</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>37683</v>
+        <v>37510</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>26739</v>
+        <v>26928</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>30650</v>
+        <v>30333</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>26752</v>
+        <v>26761</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>64424</v>
+        <v>64431</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>47276</v>
+        <v>46074</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>45364</v>
+        <v>45049</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>48364</v>
+        <v>47565</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>98141</v>
+        <v>96071</v>
       </c>
     </row>
     <row r="24">
@@ -2637,40 +2637,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>181318</v>
+        <v>183758</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>133003</v>
+        <v>133398</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>130553</v>
+        <v>130551</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>214333</v>
+        <v>213048</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>98113</v>
+        <v>97496</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>109030</v>
+        <v>108907</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>116520</v>
+        <v>116264</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>214306</v>
+        <v>214533</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>289552</v>
+        <v>290317</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>253492</v>
+        <v>251022</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>256801</v>
+        <v>256237</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>438184</v>
+        <v>439792</v>
       </c>
     </row>
     <row r="27">
@@ -2681,40 +2681,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>225428</v>
+        <v>228962</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>169979</v>
+        <v>168643</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>170136</v>
+        <v>169287</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>256727</v>
+        <v>256388</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>127379</v>
+        <v>126836</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>140092</v>
+        <v>139465</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>144939</v>
+        <v>145294</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>245013</v>
+        <v>243880</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>342779</v>
+        <v>342965</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>299743</v>
+        <v>301985</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>305394</v>
+        <v>305595</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>490880</v>
+        <v>490001</v>
       </c>
     </row>
     <row r="28">
